--- a/scripts/daniel/data/Resultados.xlsx
+++ b/scripts/daniel/data/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Escritorio\Uniandes\PEG\Big Data and Machine Learning\BD-ML---PS3\scripts\daniel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7B0182-7B0F-4A7D-A966-9F0B294AAA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8068925-FD8E-494C-BAA2-10650A7AFAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4098A65-B0A9-468E-BB18-2D325CE6028C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Modelo</t>
   </si>
@@ -99,15 +99,28 @@
   </si>
   <si>
     <t>Modelo 7</t>
+  </si>
+  <si>
+    <t>Modelo 8</t>
+  </si>
+  <si>
+    <t>Modelo de regresión lineal con regularización Lasso. Lambda = 0.01</t>
+  </si>
+  <si>
+    <t>Modelo de regresión lineal con regularización de ridge. Lambda = 0.03</t>
+  </si>
+  <si>
+    <t>Modelo 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -138,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -153,6 +166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644A559-000D-4EE8-AFAB-6043D68C077E}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,22 +594,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2.85</v>
+        <v>3.91</v>
       </c>
       <c r="D5" s="2">
-        <v>701.6</v>
+        <v>606.4</v>
       </c>
       <c r="E5" s="2">
-        <v>324.39999999999998</v>
+        <v>243.4</v>
       </c>
       <c r="F5" s="4">
-        <v>0.60899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="G5" s="3">
-        <v>1054.9000000000001</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -601,71 +617,120 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.96</v>
       </c>
       <c r="D6" s="2">
-        <v>706.2</v>
+        <v>607.70000000000005</v>
       </c>
       <c r="E6" s="2">
-        <v>326.10000000000002</v>
+        <v>243.8</v>
       </c>
       <c r="F6" s="4">
-        <v>0.61299999999999999</v>
+        <v>0.629</v>
       </c>
       <c r="G6" s="3">
-        <v>1028.0999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>700.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>3.91</v>
-      </c>
-      <c r="D7" s="2">
-        <v>606.4</v>
+        <v>2.92</v>
+      </c>
+      <c r="D7" s="6">
+        <v>708</v>
       </c>
       <c r="E7" s="2">
-        <v>243.4</v>
+        <v>326.7</v>
       </c>
       <c r="F7" s="4">
-        <v>0.63</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1025.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.96</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>607.70000000000005</v>
+        <v>706.2</v>
       </c>
       <c r="E8" s="2">
-        <v>243.8</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="F8" s="4">
-        <v>0.629</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>700.07</v>
+        <v>1028.0999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>708.7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1011.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="D10" s="2">
+        <v>703.2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>325.8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1050.06</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition descending="1" ref="F2:F9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>